--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_6_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225547.141488089</v>
+        <v>3225547.141488091</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.3405017738</v>
+        <v>3940022.790763278</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.3405017738</v>
+        <v>3940022.790763278</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494347534.489019</v>
+        <v>56787597.01858677</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y8" t="n">
         <v>511.3174326828064</v>
@@ -1232,13 +1232,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S12" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X14" t="n">
-        <v>590.8934891676915</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y14" t="n">
         <v>511.3174326828064</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>480.610968662598</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
         <v>449.4745782429939</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D26" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E26" t="n">
         <v>404.3632896068686</v>
       </c>
       <c r="F26" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
         <v>397.8840054528454</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129554326</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
         <v>449.474578242852</v>
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>347.8590406129333</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>361.0088210685126</v>
       </c>
       <c r="T29" t="n">
-        <v>559.5765741204239</v>
+        <v>559.5765741205634</v>
       </c>
       <c r="U29" t="n">
         <v>648.7514272017352</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241668239</v>
+        <v>629.851024166682</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759808057</v>
@@ -2888,7 +2888,7 @@
         <v>342.6720972217707</v>
       </c>
       <c r="F30" t="n">
-        <v>339.6362423378769</v>
+        <v>339.636242337735</v>
       </c>
       <c r="G30" t="n">
         <v>322.5970075729987</v>
@@ -2897,7 +2897,7 @@
         <v>301.8178796391094</v>
       </c>
       <c r="I30" t="n">
-        <v>108.929687778141</v>
+        <v>108.9296877779991</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>352.1613821978978</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151046196</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777493</v>
@@ -2939,7 +2939,7 @@
         <v>414.5106671913783</v>
       </c>
       <c r="W30" t="n">
-        <v>430.8394429550712</v>
+        <v>432.3731429096866</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394452457</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U32" t="n">
         <v>648.751427201877</v>
@@ -3103,7 +3103,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="33">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>480.610968662598</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3562,7 +3562,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
         <v>648.751427201877</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339500177</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
@@ -3757,7 +3757,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>359.620476775678</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4170,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1936.671378010444</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396619</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337363</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4494,22 +4494,22 @@
         <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473567</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.580088859741</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800485</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4707,43 +4707,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O7" t="n">
         <v>457.4949902104935</v>
@@ -4767,16 +4767,16 @@
         <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396619</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337363</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4944,46 +4944,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -4995,25 +4995,25 @@
         <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5050,49 +5050,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1936.671378010444</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010445</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523947</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396619</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337363</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5208,49 +5208,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5284,46 +5284,46 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L14" t="n">
-        <v>3071.357825473567</v>
+        <v>2963.70989871419</v>
       </c>
       <c r="M14" t="n">
-        <v>3553.537024987069</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N14" t="n">
-        <v>4118.580088859741</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O14" t="n">
-        <v>5028.734971800485</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
         <v>3583.51196363841</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5445,49 +5445,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5524,49 +5524,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L17" t="n">
-        <v>2595.354589746545</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M17" t="n">
-        <v>3077.533789260047</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396619</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337363</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5682,49 +5682,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5761,49 +5761,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M20" t="n">
-        <v>3194.417427023051</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159623</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
         <v>140.96</v>
@@ -5919,49 +5919,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1713.790319599033</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2631.383042915616</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396619</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6156,37 +6156,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
         <v>140.96</v>
@@ -6208,16 +6208,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
         <v>894.2358041069906</v>
@@ -6229,55 +6229,55 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>3071.357825473567</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M26" t="n">
-        <v>3553.537024987069</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N26" t="n">
-        <v>4118.580088859741</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800485</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6393,37 +6393,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6445,64 +6445,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.16171551826</v>
+        <v>2580.161715518117</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.14699002043</v>
+        <v>2126.146990020286</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994323755</v>
+        <v>1711.662994323612</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044233</v>
+        <v>1303.21522704409</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041068472</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682958923</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1677.761866429961</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2595.354589746545</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M29" t="n">
-        <v>3077.533789260047</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396619</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337363</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183322</v>
+        <v>6683.34462518332</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.115762435419</v>
+        <v>6118.115762435276</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290514474</v>
+        <v>5462.811290514332</v>
       </c>
       <c r="V29" t="n">
         <v>4826.59813479041</v>
@@ -6514,7 +6514,7 @@
         <v>3583.51196363755</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402536</v>
+        <v>3067.029708402535</v>
       </c>
     </row>
     <row r="30">
@@ -6524,31 +6524,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235187</v>
+        <v>2287.1120342349</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647926725</v>
+        <v>1922.364647926438</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.91243893929</v>
+        <v>1570.912438939003</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402147</v>
+        <v>1224.779007401861</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959497466</v>
+        <v>881.7120959496033</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327446975</v>
+        <v>555.8565327445541</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876545446</v>
       </c>
       <c r="I30" t="n">
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150622</v>
+        <v>558.8475295150621</v>
       </c>
       <c r="K30" t="n">
         <v>1250.41525721336</v>
@@ -6575,25 +6575,25 @@
         <v>5569.989306374176</v>
       </c>
       <c r="S30" t="n">
-        <v>5157.673230557053</v>
+        <v>5159.222422430115</v>
       </c>
       <c r="T30" t="n">
-        <v>4761.01548219569</v>
+        <v>4762.564674068753</v>
       </c>
       <c r="U30" t="n">
-        <v>4356.971427168392</v>
+        <v>4358.520619041454</v>
       </c>
       <c r="V30" t="n">
-        <v>3938.273783540737</v>
+        <v>3939.822975413799</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427020463</v>
+        <v>3503.082427020176</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649803043</v>
+        <v>3078.978649802756</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000544464</v>
+        <v>2675.553000544178</v>
       </c>
     </row>
     <row r="31">
@@ -6603,10 +6603,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6703,52 +6703,52 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>2124.71495243113</v>
+        <v>1436.423622860729</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010445</v>
+        <v>2354.016346177312</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523947</v>
+        <v>2836.195545690814</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396619</v>
+        <v>3401.238609563487</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337363</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
         <v>3067.029708403252</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6867,49 +6867,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
         <v>492.3327682960356</v>
@@ -6940,55 +6940,55 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>3071.357825473567</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M35" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N35" t="n">
-        <v>4118.580088859741</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O35" t="n">
-        <v>5028.734971800485</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7104,49 +7104,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7177,55 +7177,55 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K38" t="n">
-        <v>2124.71495243113</v>
+        <v>1929.233537634604</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010445</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523947</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396619</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337363</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7341,40 +7341,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7393,16 +7393,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
         <v>894.2358041069906</v>
@@ -7414,55 +7414,55 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010445</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523947</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396619</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337363</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7578,37 +7578,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
         <v>140.96</v>
@@ -7654,31 +7654,31 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010445</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523947</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
         <v>6684.746993155883</v>
@@ -7815,37 +7815,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
         <v>140.96</v>
@@ -7981,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>526.93211305776</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,16 +7999,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>685.9089394605946</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>29.3435855816706</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8455,34 +8455,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>685.9089394605946</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8698,19 +8698,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>526.93211305776</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>301.7997308240087</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>746.2187031047697</v>
+        <v>207.1786869636871</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,16 +8947,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L17" t="n">
-        <v>265.4073538855553</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9409,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>459.8234496459323</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>839.6117546116195</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>301.7997308240109</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>713.8352387415302</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>29.3435855816706</v>
+        <v>459.8234496459309</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,34 +10114,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>265.4073538855554</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>721.3482088181354</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>97.98316547195714</v>
       </c>
       <c r="L32" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,16 +10369,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,34 +10588,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>315.9139665186131</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>713.8352387415302</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>165.4662215866842</v>
       </c>
       <c r="L38" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>603.283928249446</v>
       </c>
       <c r="L41" t="n">
-        <v>645.1956588512439</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="L44" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S12" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23566,7 +23566,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.388344292976171</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24153,7 +24153,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24180,7 +24180,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R22" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S22" t="n">
         <v>316.45975839138</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24429,7 +24429,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
-        <v>33.95752167278977</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
         <v>226.3728098387097</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>33.95752167278977</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.388344291415251</v>
+        <v>1.388344291275644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699954189444</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.533699954615372</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D31" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E31" t="n">
         <v>280.9809048369565</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24991,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25365,7 +25365,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R37" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S37" t="n">
         <v>316.45975839138</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25611,13 +25611,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>33.95752167278977</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.388344292976512</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26058,16 +26058,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O46" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P46" t="n">
         <v>368.8061924102448</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.95752167278977</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15273.56714929388</v>
+        <v>1265610.825518069</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30280.78358954761</v>
+        <v>2493503.439842348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45288.00002980132</v>
+        <v>3721396.054166629</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62368.72817233024</v>
+        <v>4821237.927791082</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79449.45631485918</v>
+        <v>5921079.801415535</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96530.18445738811</v>
+        <v>7020921.675039981</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113610.912599917</v>
+        <v>8120763.548664425</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130691.6407424459</v>
+        <v>9220605.422288867</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147772.3688849749</v>
+        <v>10320447.29591331</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164853.0970275025</v>
+        <v>11420289.16953803</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181933.8251700314</v>
+        <v>12520131.04316247</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199014.5533125603</v>
+        <v>13619972.91678692</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216095.2814550894</v>
+        <v>14719814.79041139</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233176.0095976186</v>
+        <v>15819656.66403585</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250256.7377401478</v>
+        <v>16919498.53766031</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>976017.2062577606</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577604</v>
       </c>
       <c r="E2" t="n">
         <v>874233.2841630247</v>
@@ -26334,34 +26334,34 @@
         <v>874233.2841630247</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.284163025</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="I2" t="n">
         <v>874233.284163025</v>
       </c>
       <c r="J2" t="n">
-        <v>874233.2841630251</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632186</v>
+        <v>874233.2841632413</v>
       </c>
       <c r="L2" t="n">
-        <v>874233.2841630252</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="M2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="N2" t="n">
         <v>874233.2841630251</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630246</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000001</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,46 +26426,46 @@
         <v>114221.2779508281</v>
       </c>
       <c r="C4" t="n">
-        <v>113919.3268963469</v>
+        <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
         <v>113616.9662264139</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="G4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="J4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672783436</v>
+        <v>38928.93672785052</v>
       </c>
       <c r="L4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="N4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
     </row>
     <row r="5">
@@ -26533,43 +26533,43 @@
         <v>689490.8793614137</v>
       </c>
       <c r="D6" t="n">
-        <v>689793.2400313469</v>
+        <v>689793.2400313464</v>
       </c>
       <c r="E6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="F6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="G6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="H6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="I6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="J6" t="n">
-        <v>76100.94743532909</v>
+        <v>76100.94743532897</v>
       </c>
       <c r="K6" t="n">
-        <v>696324.9474353842</v>
+        <v>696324.9474353908</v>
       </c>
       <c r="L6" t="n">
-        <v>696324.9474353292</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="M6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353291</v>
       </c>
       <c r="N6" t="n">
         <v>696324.9474353292</v>
       </c>
       <c r="O6" t="n">
+        <v>696324.947435329</v>
+      </c>
+      <c r="P6" t="n">
         <v>696324.9474353287</v>
-      </c>
-      <c r="P6" t="n">
-        <v>696324.947435329</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,16 +27144,16 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27939,10 +27939,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>187.2441835284046</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
         <v>368.8061924102448</v>
@@ -27963,7 +27963,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V7" t="n">
-        <v>350.3353461971998</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W7" t="n">
         <v>226.3728098387097</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28076,13 +28076,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28179,10 +28179,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -28191,10 +28191,10 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T10" t="n">
-        <v>266.3924756327198</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U10" t="n">
         <v>150.8146863564251</v>
@@ -29641,7 +29641,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.418811734765769e-10</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>1.418811734765769e-10</v>
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.418811734765769e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29701,7 +29701,7 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.418811734765769e-10</v>
       </c>
       <c r="W29" t="n">
         <v>1.418811734765769e-10</v>
@@ -29732,7 +29732,7 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.418811734765769e-10</v>
       </c>
       <c r="G30" t="n">
         <v>1.418811734765769e-10</v>
@@ -29741,7 +29741,7 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.418811734765769e-10</v>
       </c>
       <c r="J30" t="n">
         <v>1.418811734765769e-10</v>
@@ -29771,7 +29771,7 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.418811734765769e-10</v>
       </c>
       <c r="T30" t="n">
         <v>1.418811734765769e-10</v>
@@ -34825,16 +34825,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1274.046399489921</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34843,16 +34843,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1605.257306067407</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35062,22 +35062,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>956.2049222650876</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1393.32108786481</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
@@ -35235,10 +35235,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35259,7 +35259,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -35299,34 +35299,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1572.056995534661</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1256.65950902895</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35475,10 +35475,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35487,10 +35487,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.62479437236368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -35542,19 +35542,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1274.046399489921</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1221.148097430821</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>1673.080039788187</v>
+        <v>1134.040023647104</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,16 +35791,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36016,22 +36016,22 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L17" t="n">
-        <v>1192.268690568972</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36253,16 +36253,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>946.873146124218</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>1410.362324179975</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36484,25 +36484,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1048.914017256172</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>1284.585808309886</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,22 +36721,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>956.2049222650876</v>
+        <v>1386.684786329348</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
@@ -36745,10 +36745,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,34 +36958,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1012.521640317716</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1565.658641239766</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,16 +37195,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>845.097451904118</v>
       </c>
       <c r="L32" t="n">
-        <v>1572.056995534661</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37213,16 +37213,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,34 +37432,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>1242.77530320203</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>1284.585808309886</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P35" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,16 +37669,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.98940395526</v>
+        <v>912.580508018845</v>
       </c>
       <c r="L38" t="n">
-        <v>1572.056995534661</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37687,7 +37687,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P38" t="n">
         <v>844.3104324216301</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>1350.398214681607</v>
       </c>
       <c r="L41" t="n">
-        <v>1572.056995534661</v>
+        <v>1762</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -38146,13 +38146,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>1063.028252950772</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.056995534661</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38167,7 +38167,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
